--- a/Verithus/Documentação/Relação de Procedures.xlsx
+++ b/Verithus/Documentação/Relação de Procedures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
   <si>
     <t>SEQ</t>
   </si>
@@ -248,37 +248,28 @@
     <t>SPVRT066_FERIAS_PR_ALTERAR</t>
   </si>
   <si>
-    <t>SPVRT067_FERIAS_PR_EXCLUIR</t>
-  </si>
-  <si>
-    <t>SPVRT068_FERIAS_PR_INCLUIR</t>
-  </si>
-  <si>
-    <t>SPVRT069_FERIAS_PR_SELECIONAR</t>
-  </si>
-  <si>
-    <t>SPVRT070_ACIDENTE_TRABALHO_PR_ALTERAR</t>
-  </si>
-  <si>
-    <t>SPVRT071_ACIDENTE_TRABALHO_PR_EXCLUIR</t>
-  </si>
-  <si>
-    <t>SPVRT072_ACIDENTE_TRABALHO_PR_INCLUIR</t>
-  </si>
-  <si>
-    <t>SPVRT073_ACIDENTE_TRABALHO_PR_SELECIONAR</t>
-  </si>
-  <si>
-    <t>SPVRT074_ALTERACAO_CARGO_SALARIO_PR_ALTERAR</t>
-  </si>
-  <si>
-    <t>SPVRT075_ALTERACAO_CARGO_SALARIO_PR_EXCLUIR</t>
-  </si>
-  <si>
-    <t>SPVRT076_ALTERACAO_CARGO_SALARIO_PR_INCLUIR</t>
-  </si>
-  <si>
-    <t>SPVRT077_ALTERACAO_CARGO_SALARIO_PR_SELECIONAR</t>
+    <t>SPVRT067_FERIAS_PR_INCLUIR</t>
+  </si>
+  <si>
+    <t>SPVRT068_FERIAS_PR_SELECIONAR</t>
+  </si>
+  <si>
+    <t>SPVRT069_ACIDENTE_TRABALHO_PR_ALTERAR</t>
+  </si>
+  <si>
+    <t>SPVRT070_ACIDENTE_TRABALHO_PR_INCLUIR</t>
+  </si>
+  <si>
+    <t>SPVRT071_ACIDENTE_TRABALHO_PR_SELECIONAR</t>
+  </si>
+  <si>
+    <t>SPVRT072_ALTERACAO_CARGO_SALARIO_PR_ALTERAR</t>
+  </si>
+  <si>
+    <t>SPVRT073_ALTERACAO_CARGO_SALARIO_PR_INCLUIR</t>
+  </si>
+  <si>
+    <t>SPVRT074_ALTERACAO_CARGO_SALARIO_PR_SELECIONAR</t>
   </si>
 </sst>
 </file>
@@ -431,8 +422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C78" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C75" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C75"/>
   <tableColumns count="3">
     <tableColumn id="1" name="SEQ" dataDxfId="2"/>
     <tableColumn id="2" name="NOME PROC" dataDxfId="1"/>
@@ -705,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1454,7 @@
         <v>74</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,18 +1465,18 @@
         <v>75</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,7 +1487,7 @@
         <v>77</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,7 +1498,7 @@
         <v>78</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,7 +1509,7 @@
         <v>79</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,7 +1520,7 @@
         <v>80</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,39 +1531,6 @@
         <v>81</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Verithus/Documentação/Relação de Procedures.xlsx
+++ b/Verithus/Documentação/Relação de Procedures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>SEQ</t>
   </si>
@@ -270,13 +270,16 @@
   </si>
   <si>
     <t>SPVRT074_ALTERACAO_CARGO_SALARIO_PR_SELECIONAR</t>
+  </si>
+  <si>
+    <t>SPVRT075_LOG_PR_SELECIONAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +303,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,12 +331,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C75" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C76" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C76"/>
   <tableColumns count="3">
     <tableColumn id="1" name="SEQ" dataDxfId="2"/>
     <tableColumn id="2" name="NOME PROC" dataDxfId="1"/>
@@ -696,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
@@ -1534,6 +1545,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/Verithus/Documentação/Relação de Procedures.xlsx
+++ b/Verithus/Documentação/Relação de Procedures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romulo\Documents\GitHub\InfoTech2u\Verithus\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetos\InfoTech2u - Copia\Verithus\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>SEQ</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>SPVRT075_LOG_PR_SELECIONAR</t>
+  </si>
+  <si>
+    <t>SPVRT076_SISTEMA_PR_SELECIONAR</t>
+  </si>
+  <si>
+    <t>SPVRT077_SISTEMA_PR_EXCLUIR</t>
   </si>
 </sst>
 </file>
@@ -433,8 +439,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C76" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C78" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C78"/>
   <tableColumns count="3">
     <tableColumn id="1" name="SEQ" dataDxfId="2"/>
     <tableColumn id="2" name="NOME PROC" dataDxfId="1"/>
@@ -445,9 +451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -485,7 +491,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -557,7 +563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -707,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,6 +1562,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/Verithus/Documentação/Relação de Procedures.xlsx
+++ b/Verithus/Documentação/Relação de Procedures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projetos\InfoTech2u - Copia\Verithus\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romulo\Documents\GitHub\InfoTech2u\Verithus\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>SEQ</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>SPVRT077_SISTEMA_PR_EXCLUIR</t>
+  </si>
+  <si>
+    <t>SPVRT078_FERIAS_PR_EXCLUIR</t>
+  </si>
+  <si>
+    <t>SPVRT079_ACIDENTE_TRABALHO_PR_EXCLUIR</t>
+  </si>
+  <si>
+    <t>SPVRT080_ALTERACAO_CARGO_SALARIO_PR_EXCLUIR</t>
+  </si>
+  <si>
+    <t>SPVRT081_BENEFICIO_PR_SELECIONAR</t>
   </si>
 </sst>
 </file>
@@ -439,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C78" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:C82" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C82"/>
   <tableColumns count="3">
     <tableColumn id="1" name="SEQ" dataDxfId="2"/>
     <tableColumn id="2" name="NOME PROC" dataDxfId="1"/>
@@ -451,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -563,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -713,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,10 +1596,55 @@
         <v>4</v>
       </c>
     </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>